--- a/PO/data/area.xlsx
+++ b/PO/data/area.xlsx
@@ -4,37 +4,374 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27900" windowHeight="13520" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <fonts count="21">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,180 +379,376 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="13"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>我的内容上门</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <areaChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!B1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet'!$A$1:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet'!$B$2:$B$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Sheet'!C1</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Sheet'!$A$1:$A$3</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Sheet'!$C$2:$C$7</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </areaChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>标题测试组</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>比率</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>6</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -497,7 +1030,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -509,13 +1041,17 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="6"/>
+  <cols>
+    <col width="18.4230769230769" customWidth="1" min="1" max="1"/>
+    <col width="53.2019230769231" customWidth="1" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="30" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>Number具体数</t>
@@ -532,7 +1068,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="30" customHeight="1">
       <c r="A2" t="n">
         <v>2</v>
       </c>
@@ -543,7 +1079,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="30" customHeight="1">
       <c r="A3" t="n">
         <v>3</v>
       </c>
@@ -554,7 +1090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="30" customHeight="1">
       <c r="A4" t="n">
         <v>4</v>
       </c>
@@ -565,7 +1101,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="30" customHeight="1">
       <c r="A5" t="n">
         <v>5</v>
       </c>
@@ -576,7 +1112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="30" customHeight="1">
       <c r="A6" t="n">
         <v>6</v>
       </c>
@@ -587,7 +1123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="30" customHeight="1">
       <c r="A7" t="n">
         <v>7</v>
       </c>
@@ -600,6 +1136,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PO/data/area.xlsx
+++ b/PO/data/area.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27100" windowHeight="13220" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27100" windowHeight="13220" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -1036,11 +1036,11 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col width="18.4230769230769" customWidth="1" min="1" max="1"/>
     <col width="53.2019230769231" customWidth="1" min="3" max="3"/>
@@ -1218,11 +1218,11 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col width="18.4230769230769" customWidth="1" min="1" max="1"/>
     <col width="53.2019230769231" customWidth="1" min="3" max="3"/>
@@ -1370,7 +1370,7 @@
   </sheetPr>
   <dimension ref="C4:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="0" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>

--- a/PO/data/area.xlsx
+++ b/PO/data/area.xlsx
@@ -424,10 +424,10 @@
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="18.5" customWidth="1" min="1" max="1"/>
     <col width="53.1640625" customWidth="1" min="3" max="3"/>
@@ -487,7 +487,7 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col width="18.5" customWidth="1" min="1" max="1"/>
     <col width="53.1640625" customWidth="1" min="3" max="3"/>
